--- a/tl/S00031.MES.BIN.xlsx
+++ b/tl/S00031.MES.BIN.xlsx
@@ -2,10 +2,15 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{051CBAA0-1EBF-44A5-9DD9-700CC36B6D5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Program Files\WA1\Data\Game\excel\trimmed\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8933D92D-168D-4961-B94A-422A82E8A98B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="11310" windowWidth="48240" windowHeight="19545" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2820" yWindow="9810" windowWidth="45900" windowHeight="19845" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="S00031.MES.BIN" sheetId="1" r:id="rId1"/>

--- a/tl/S00031.MES.BIN.xlsx
+++ b/tl/S00031.MES.BIN.xlsx
@@ -1,26 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Program Files\WA1\Data\Game\excel\trimmed\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8933D92D-168D-4961-B94A-422A82E8A98B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="166925"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8D68A3B-619C-42F8-AC1F-15534536EE41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2820" yWindow="9810" windowWidth="45900" windowHeight="19845" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3015" yWindow="3900" windowWidth="54585" windowHeight="12585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="S00031.MES.BIN" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="420" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="420" uniqueCount="97">
   <si>
     <t>Status</t>
   </si>
@@ -55,16 +63,13 @@
     <t>1</t>
   </si>
   <si>
-    <t>Riiiiiiiiiing-----</t>
-  </si>
-  <si>
-    <t>Purururururuuuuuuuuuu...</t>
+    <t>Riiiiiing-----</t>
   </si>
   <si>
     <t>3</t>
   </si>
   <si>
-    <t>...It's a phone call...</t>
+    <t>…It's a phone call....</t>
   </si>
   <si>
     <t>5</t>
@@ -73,16 +78,13 @@
     <t>7</t>
   </si>
   <si>
-    <t>Yes, yes...</t>
+    <t>Yes, yes….</t>
   </si>
   <si>
     <t>9</t>
   </si>
   <si>
-    <t>Ka-cha...</t>
-  </si>
-  <si>
-    <t>This line is funny to me considering phones these days.</t>
+    <t>Click….</t>
   </si>
   <si>
     <t>11</t>
@@ -91,10 +93,7 @@
     <t>Touya</t>
   </si>
   <si>
-    <t>Yes, this is Fujii...</t>
-  </si>
-  <si>
-    <t>Should this be "Yes, this is Fujii" or "Hello?" Since "hello" on the phone is usually "もしもし"</t>
+    <t>…Yes, this is Fujii…...</t>
   </si>
   <si>
     <t>13</t>
@@ -106,241 +105,220 @@
     <t>Female Voice</t>
   </si>
   <si>
-    <t>This is the Home Tutoring Center. Is Touya Fujii at home?</t>
+    <t>This is the Home Tutor Center. Is Touya Fujii-sama home?</t>
   </si>
   <si>
     <t>15</t>
   </si>
   <si>
-    <t>Yes, I am him.</t>
-  </si>
-  <si>
-    <t>I-it's me...</t>
-  </si>
-  <si>
-    <t>Literally translates to "Me...I am."</t>
+    <t>…Me…I mean, this is him.</t>
+  </si>
+  <si>
+    <t>Ore to watashi/polite</t>
   </si>
   <si>
     <t>17</t>
   </si>
   <si>
-    <t>I applied earlier to a home tutor placement agency.</t>
+    <t>It's from the home tutor mediator I applied to before.</t>
   </si>
   <si>
     <t>19</t>
   </si>
   <si>
-    <t>I wonder if I found a job...</t>
+    <t>I wonder if they found a job for me….</t>
   </si>
   <si>
     <t>21</t>
   </si>
   <si>
-    <t>Akira</t>
-  </si>
-  <si>
-    <t>"I apologize for the interruption during your break. We have a request for you based on the job you applied for previously..."</t>
-  </si>
-  <si>
-    <t>NOT Akira - this is a text extraction bug...ugh</t>
+    <t>Mediator</t>
+  </si>
+  <si>
+    <t>I apologize for calling during your day off. We have a request for the job you applied for before…</t>
   </si>
   <si>
     <t>23</t>
   </si>
   <si>
-    <t>Basically, someone wants to hire me as a home tutor.</t>
+    <t>In short, someone wants to hire me as a home tutor.</t>
   </si>
   <si>
     <t>25</t>
   </si>
   <si>
-    <t>Still, at this hour...</t>
+    <t>But why now of all times….</t>
   </si>
   <si>
     <t>27</t>
   </si>
   <si>
-    <t>"So, Mr. Fujii, are you willing to accept this job?"</t>
+    <t>So, Fujii-sama, are you interested in taking this job?</t>
   </si>
   <si>
     <t>29</t>
   </si>
   <si>
-    <t>Uh, yes?</t>
-  </si>
-  <si>
-    <t>Ah, yes?</t>
+    <t>Ah, yes…?</t>
   </si>
   <si>
     <t>31</t>
   </si>
   <si>
-    <t>"We'd like to receive your reply regarding this job offer."</t>
-  </si>
-  <si>
-    <t>Still half asleep, my brain made a silly response.</t>
+    <t>My still-groggy brain makes me give a foolish reply.</t>
   </si>
   <si>
     <t>33</t>
   </si>
   <si>
+    <t>We would like to get your response to the person who made the request.</t>
+  </si>
+  <si>
     <t>35</t>
   </si>
   <si>
-    <t>"...so you're asking me to decide now if I'll take the job or not?"</t>
+    <t>…In other words, I have to decide now if I take the job or not?</t>
   </si>
   <si>
     <t>37</t>
   </si>
   <si>
-    <t>"We don't need a decision right away, but since we need to have an interview with your parents, for now can you just tell us if you'll take the interview or not..."</t>
+    <t>You can decide later, but for now, an interview with the parents is necessary, so we just need to know if you're willing to take the interview…</t>
   </si>
   <si>
     <t>39</t>
   </si>
   <si>
-    <t>Sigh...</t>
-  </si>
-  <si>
-    <t>Ugh...</t>
+    <t>I see…</t>
   </si>
   <si>
     <t>41</t>
   </si>
   <si>
-    <t>If it's okay to reply later, I guess I could try taking the interview.</t>
-  </si>
-  <si>
-    <t>"If it's okay to reply later, I guess I'll just go ahead and take the interview."</t>
+    <t>If I can give an answer later, I might as well go to the interview to see what it's about.</t>
   </si>
   <si>
     <t>43</t>
   </si>
   <si>
-    <t>Alright, I guess I'll go ahead and take the interview.</t>
+    <t>Alright, I'll just go to the interview for now.</t>
   </si>
   <si>
     <t>45</t>
   </si>
   <si>
-    <t>Is that so? Then in that case...</t>
-  </si>
-  <si>
-    <t>Is that so? Well then...</t>
+    <t>Is that so? In that case…</t>
   </si>
   <si>
     <t>47</t>
   </si>
   <si>
-    <t>The sound of papers shuffling comes through the phone.</t>
+    <t>I can hear the sound of papers rustling on the other end of the line.</t>
   </si>
   <si>
     <t>49</t>
   </si>
   <si>
-    <t>"...I apologize for the suddenness, but the interview will be in four days. Is that okay?"</t>
+    <t>...It's very sudden, but the interview is scheduled for the 4th. Is that alright?</t>
   </si>
   <si>
     <t>51</t>
   </si>
   <si>
-    <t>Four days...?</t>
+    <t>The 4th…?</t>
   </si>
   <si>
     <t>53</t>
   </si>
   <si>
-    <t>Umm...</t>
+    <t>Let's see....</t>
   </si>
   <si>
     <t>55</t>
   </si>
   <si>
-    <t>The day after tomorrow?</t>
+    <t>...The day after tomorrow?</t>
   </si>
   <si>
     <t>57</t>
   </si>
   <si>
-    <t>"If there is a date you would like, I will try to negotiate it from this side."</t>
+    <t>If you have a preferred date, we can try to negotiate from our side, but for now, just the interview…</t>
   </si>
   <si>
     <t>59</t>
   </si>
   <si>
-    <t>"No, it's okay on the 4th."</t>
+    <t>No, the 4th is fine.</t>
   </si>
   <si>
     <t>61</t>
   </si>
   <si>
-    <t>"Thank you very much, it helps."</t>
+    <t>I'm sorry, thank you for the cooperation.</t>
   </si>
   <si>
     <t>63</t>
   </si>
   <si>
-    <t>It is unusual for a tutor applicant to receive such a response.</t>
+    <t>It's unusual for an arrangement agency to be so accommodating to a home tutor applicant.</t>
   </si>
   <si>
     <t>65</t>
   </si>
   <si>
-    <t>"I'll send you the address and phone number to the client's house right away."</t>
-  </si>
-  <si>
-    <t>"I'll send you the map and phone number to the client's house right away."</t>
+    <t>…Alright then… We'll send you the map and phone number to the client's house right away.</t>
   </si>
   <si>
     <t>67</t>
   </si>
   <si>
-    <t>"Please receive it by fax. If you have any questions, feel free to contact us immediately."</t>
-  </si>
-  <si>
-    <t>"Please receive it by fax. If you have any questions, feel free to contact us right away."</t>
+    <t>Please receive it by fax. If you have any questions, feel free to contact us.</t>
+  </si>
+  <si>
+    <t>Please receive it by fax. If you have any questions, please feel free to contact us.</t>
   </si>
   <si>
     <t>69</t>
   </si>
   <si>
-    <t>Then the phone line cuts off and a beep echoes in the air.</t>
+    <t>Then the phone call ends, and a loud electronic sound echoes.</t>
   </si>
   <si>
     <t>71</t>
   </si>
   <si>
-    <t>After a while, a map and some simple paperwork are printed out.</t>
+    <t>After a while, a map and some simple documents are ejected from the fax machine.</t>
   </si>
   <si>
     <t>73</t>
   </si>
   <si>
-    <t>...I read it and understand that this part-time job has really good conditions...</t>
+    <t>…Upon reading them, the conditions for this part-time job are amazing….</t>
   </si>
   <si>
     <t>75</t>
   </si>
   <si>
-    <t>The salary and working conditions too.</t>
+    <t>Both the pay and working conditions are outstanding.</t>
   </si>
   <si>
     <t>77</t>
   </si>
   <si>
-    <t>...There must be some kind of unbelievable catch...</t>
+    <t>...There must be some kind of catch though…</t>
   </si>
   <si>
     <t>79</t>
   </si>
   <si>
-    <t>What kind of "unbelievable catch" could there be for just a tutor at home?</t>
+    <t>I mean, what kind of "hidden aspect" could there be for a mere home tutor job?</t>
   </si>
   <si>
     <t>81</t>
   </si>
   <si>
-    <t>Anyway, I'll just go and check it out tomorrow.</t>
+    <t>Well, for now, I'll just go the day after tomorrow and see what happens.</t>
   </si>
 </sst>
 </file>
@@ -821,10 +799,10 @@
         <v>9</v>
       </c>
       <c r="F2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2" s="3" t="s">
         <v>11</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>12</v>
       </c>
       <c r="H2" s="3" t="s">
         <v>9</v>
@@ -841,22 +819,22 @@
         <v>9</v>
       </c>
       <c r="B3" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G3" s="5" t="s">
         <v>13</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="G3" s="5" t="s">
-        <v>14</v>
       </c>
       <c r="H3" s="5" t="s">
         <v>9</v>
@@ -873,7 +851,7 @@
         <v>9</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>9</v>
@@ -885,10 +863,10 @@
         <v>9</v>
       </c>
       <c r="F4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G4" s="3" t="s">
         <v>11</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>12</v>
       </c>
       <c r="H4" s="3" t="s">
         <v>9</v>
@@ -905,22 +883,22 @@
         <v>9</v>
       </c>
       <c r="B5" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G5" s="5" t="s">
         <v>16</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="G5" s="5" t="s">
-        <v>17</v>
       </c>
       <c r="H5" s="5" t="s">
         <v>9</v>
@@ -937,25 +915,25 @@
         <v>9</v>
       </c>
       <c r="B6" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G6" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C6" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G6" s="3" t="s">
-        <v>19</v>
-      </c>
       <c r="H6" s="3" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="I6" s="3" t="s">
         <v>9</v>
@@ -969,13 +947,13 @@
         <v>9</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>10</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E7" s="4" t="s">
         <v>9</v>
@@ -984,10 +962,10 @@
         <v>9</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="H7" s="5" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="I7" s="5" t="s">
         <v>9</v>
@@ -1001,22 +979,22 @@
         <v>9</v>
       </c>
       <c r="B8" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G8" s="3" t="s">
         <v>25</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G8" s="3" t="s">
-        <v>28</v>
       </c>
       <c r="H8" s="3" t="s">
         <v>9</v>
@@ -1033,25 +1011,25 @@
         <v>9</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>10</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E9" s="4" t="s">
         <v>9</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>30</v>
+        <v>9</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="H9" s="5" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="I9" s="5" t="s">
         <v>9</v>
@@ -1065,7 +1043,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>9</v>
@@ -1080,7 +1058,7 @@
         <v>9</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="H10" s="3" t="s">
         <v>9</v>
@@ -1097,7 +1075,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>9</v>
@@ -1112,7 +1090,7 @@
         <v>9</v>
       </c>
       <c r="G11" s="5" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="H11" s="5" t="s">
         <v>9</v>
@@ -1129,13 +1107,13 @@
         <v>9</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>9</v>
@@ -1144,10 +1122,10 @@
         <v>9</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>40</v>
+        <v>9</v>
       </c>
       <c r="I12" s="3" t="s">
         <v>9</v>
@@ -1161,7 +1139,7 @@
         <v>9</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>9</v>
@@ -1176,7 +1154,7 @@
         <v>9</v>
       </c>
       <c r="G13" s="5" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="H13" s="5" t="s">
         <v>9</v>
@@ -1193,7 +1171,7 @@
         <v>9</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>9</v>
@@ -1208,7 +1186,7 @@
         <v>9</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="H14" s="3" t="s">
         <v>9</v>
@@ -1225,13 +1203,13 @@
         <v>9</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="E15" s="4" t="s">
         <v>9</v>
@@ -1240,7 +1218,7 @@
         <v>9</v>
       </c>
       <c r="G15" s="5" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="H15" s="5" t="s">
         <v>9</v>
@@ -1257,22 +1235,22 @@
         <v>9</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>9</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>48</v>
+        <v>9</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="H16" s="3" t="s">
         <v>9</v>
@@ -1289,7 +1267,7 @@
         <v>9</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="C17" s="4" t="s">
         <v>9</v>
@@ -1301,10 +1279,10 @@
         <v>9</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>51</v>
+        <v>9</v>
       </c>
       <c r="G17" s="5" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="H17" s="5" t="s">
         <v>9</v>
@@ -1321,13 +1299,13 @@
         <v>9</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>9</v>
@@ -1336,7 +1314,7 @@
         <v>9</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="H18" s="3" t="s">
         <v>9</v>
@@ -1353,13 +1331,13 @@
         <v>9</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="C19" s="4" t="s">
         <v>10</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E19" s="4" t="s">
         <v>9</v>
@@ -1368,7 +1346,7 @@
         <v>9</v>
       </c>
       <c r="G19" s="5" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="H19" s="5" t="s">
         <v>9</v>
@@ -1385,13 +1363,13 @@
         <v>9</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>9</v>
@@ -1400,7 +1378,7 @@
         <v>9</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="H20" s="3" t="s">
         <v>9</v>
@@ -1417,22 +1395,22 @@
         <v>9</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="C21" s="4" t="s">
         <v>10</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E21" s="4" t="s">
         <v>9</v>
       </c>
       <c r="F21" s="4" t="s">
-        <v>59</v>
+        <v>9</v>
       </c>
       <c r="G21" s="5" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="H21" s="5" t="s">
         <v>9</v>
@@ -1449,7 +1427,7 @@
         <v>9</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>9</v>
@@ -1461,10 +1439,10 @@
         <v>9</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>62</v>
+        <v>9</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="H22" s="3" t="s">
         <v>9</v>
@@ -1481,22 +1459,22 @@
         <v>9</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="C23" s="4" t="s">
         <v>10</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E23" s="4" t="s">
         <v>9</v>
       </c>
       <c r="F23" s="4" t="s">
-        <v>65</v>
+        <v>9</v>
       </c>
       <c r="G23" s="5" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="H23" s="5" t="s">
         <v>9</v>
@@ -1513,22 +1491,22 @@
         <v>9</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="E24" s="2" t="s">
         <v>9</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>67</v>
+        <v>9</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="H24" s="3" t="s">
         <v>9</v>
@@ -1545,7 +1523,7 @@
         <v>9</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="C25" s="4" t="s">
         <v>9</v>
@@ -1560,7 +1538,7 @@
         <v>9</v>
       </c>
       <c r="G25" s="5" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="H25" s="5" t="s">
         <v>9</v>
@@ -1577,13 +1555,13 @@
         <v>9</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="E26" s="2" t="s">
         <v>9</v>
@@ -1592,7 +1570,7 @@
         <v>9</v>
       </c>
       <c r="G26" s="3" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="H26" s="3" t="s">
         <v>9</v>
@@ -1609,13 +1587,13 @@
         <v>9</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="C27" s="4" t="s">
         <v>10</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E27" s="4" t="s">
         <v>9</v>
@@ -1624,7 +1602,7 @@
         <v>9</v>
       </c>
       <c r="G27" s="5" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="H27" s="5" t="s">
         <v>9</v>
@@ -1641,7 +1619,7 @@
         <v>9</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>9</v>
@@ -1656,7 +1634,7 @@
         <v>9</v>
       </c>
       <c r="G28" s="3" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="H28" s="3" t="s">
         <v>9</v>
@@ -1673,7 +1651,7 @@
         <v>9</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="C29" s="4" t="s">
         <v>9</v>
@@ -1688,7 +1666,7 @@
         <v>9</v>
       </c>
       <c r="G29" s="5" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="H29" s="5" t="s">
         <v>9</v>
@@ -1705,13 +1683,13 @@
         <v>9</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="E30" s="2" t="s">
         <v>9</v>
@@ -1720,7 +1698,7 @@
         <v>9</v>
       </c>
       <c r="G30" s="3" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="H30" s="3" t="s">
         <v>9</v>
@@ -1737,13 +1715,13 @@
         <v>9</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="C31" s="4" t="s">
         <v>10</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E31" s="4" t="s">
         <v>9</v>
@@ -1752,7 +1730,7 @@
         <v>9</v>
       </c>
       <c r="G31" s="5" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="H31" s="5" t="s">
         <v>9</v>
@@ -1769,13 +1747,13 @@
         <v>9</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="E32" s="2" t="s">
         <v>9</v>
@@ -1784,7 +1762,7 @@
         <v>9</v>
       </c>
       <c r="G32" s="3" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="H32" s="3" t="s">
         <v>9</v>
@@ -1801,7 +1779,7 @@
         <v>9</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="C33" s="4" t="s">
         <v>9</v>
@@ -1816,7 +1794,7 @@
         <v>9</v>
       </c>
       <c r="G33" s="5" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="H33" s="5" t="s">
         <v>9</v>
@@ -1833,22 +1811,22 @@
         <v>9</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="E34" s="2" t="s">
         <v>9</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>88</v>
+        <v>9</v>
       </c>
       <c r="G34" s="3" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="H34" s="3" t="s">
         <v>9</v>
@@ -1865,22 +1843,22 @@
         <v>9</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="E35" s="4" t="s">
         <v>9</v>
       </c>
       <c r="F35" s="4" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="G35" s="5" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="H35" s="5" t="s">
         <v>9</v>
@@ -1897,7 +1875,7 @@
         <v>9</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="C36" s="2" t="s">
         <v>9</v>
@@ -1912,7 +1890,7 @@
         <v>9</v>
       </c>
       <c r="G36" s="3" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="H36" s="3" t="s">
         <v>9</v>
@@ -1929,7 +1907,7 @@
         <v>9</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="C37" s="4" t="s">
         <v>9</v>
@@ -1944,7 +1922,7 @@
         <v>9</v>
       </c>
       <c r="G37" s="5" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="H37" s="5" t="s">
         <v>9</v>
@@ -1961,7 +1939,7 @@
         <v>9</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="C38" s="2" t="s">
         <v>9</v>
@@ -1976,7 +1954,7 @@
         <v>9</v>
       </c>
       <c r="G38" s="3" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
       <c r="H38" s="3" t="s">
         <v>9</v>
@@ -1993,7 +1971,7 @@
         <v>9</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="C39" s="4" t="s">
         <v>9</v>
@@ -2008,7 +1986,7 @@
         <v>9</v>
       </c>
       <c r="G39" s="5" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="H39" s="5" t="s">
         <v>9</v>
@@ -2025,7 +2003,7 @@
         <v>9</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
       <c r="C40" s="2" t="s">
         <v>9</v>
@@ -2040,7 +2018,7 @@
         <v>9</v>
       </c>
       <c r="G40" s="3" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="H40" s="3" t="s">
         <v>9</v>
@@ -2057,7 +2035,7 @@
         <v>9</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
       <c r="C41" s="4" t="s">
         <v>9</v>
@@ -2072,7 +2050,7 @@
         <v>9</v>
       </c>
       <c r="G41" s="5" t="s">
-        <v>104</v>
+        <v>94</v>
       </c>
       <c r="H41" s="5" t="s">
         <v>9</v>
@@ -2089,7 +2067,7 @@
         <v>9</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>105</v>
+        <v>95</v>
       </c>
       <c r="C42" s="2" t="s">
         <v>9</v>
@@ -2104,7 +2082,7 @@
         <v>9</v>
       </c>
       <c r="G42" s="3" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
       <c r="H42" s="3" t="s">
         <v>9</v>
